--- a/8月制作内容/系统文档/【叶雯婷】雅集系统策划案.xlsx
+++ b/8月制作内容/系统文档/【叶雯婷】雅集系统策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="12465" tabRatio="599" activeTab="2"/>
+    <workbookView windowWidth="23400" windowHeight="12465" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="2" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <t>系统内的界面切换不宣传极品作品</t>
   </si>
   <si>
-    <t>选择随便逛逛，系统随机区排名前20%的玩家</t>
+    <t>选择随便逛逛，系统随机区排名前100的玩家</t>
   </si>
   <si>
     <t>展示该玩家未交流的作品信息</t>
@@ -703,6 +703,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">标签类型：
 1.拜帖：他人向我拜帖
 2.交流：我的展示作品或拜帖作品成功交流
@@ -1067,7 +1074,7 @@
     <t>显示正在展示或拜帖中的状态</t>
   </si>
   <si>
-    <t>单击后随机拜访1个区排名前20%的玩家（剔除正在拜访的人）</t>
+    <t>单击后随机拜访1个区排名前100的玩家（剔除正在拜访的人）</t>
   </si>
   <si>
     <t>拜帖优品</t>
@@ -1114,10 +1121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1187,6 +1194,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1195,7 +1263,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1210,69 +1286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1286,22 +1300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1309,8 +1307,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,7 +1325,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1364,25 +1371,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,61 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,13 +1443,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,7 +1485,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,54 +1552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,15 +1627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1644,17 +1642,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1676,15 +1668,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1694,11 +1677,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1725,10 +1732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,139 +1744,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1933,9 +1940,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -23828,8 +23832,8 @@
   <sheetPr/>
   <dimension ref="B3:U151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -24714,9 +24718,9 @@
       <c r="H113" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
     </row>
     <row r="114" spans="4:11">
       <c r="D114" s="22">
@@ -24732,9 +24736,9 @@
       <c r="H114" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
     </row>
     <row r="115" spans="4:11">
       <c r="D115" s="22">
@@ -24752,15 +24756,15 @@
       <c r="H115" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I115" s="29"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
     </row>
     <row r="116" spans="4:11">
       <c r="D116" s="22">
         <v>4</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="8" t="s">
         <v>87</v>
       </c>
       <c r="F116" s="23">
@@ -24770,9 +24774,9 @@
       <c r="H116" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
     </row>
     <row r="117" spans="4:11">
       <c r="D117" s="22">
@@ -24790,9 +24794,9 @@
       <c r="H117" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I117" s="29"/>
-      <c r="J117" s="29"/>
-      <c r="K117" s="29"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
     </row>
     <row r="118" spans="4:11">
       <c r="D118" s="22">
@@ -24808,9 +24812,9 @@
       <c r="H118" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I118" s="29"/>
-      <c r="J118" s="29"/>
-      <c r="K118" s="29"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="28"/>
     </row>
     <row r="119" spans="4:11">
       <c r="D119" s="22">
@@ -24826,9 +24830,9 @@
       <c r="H119" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="I119" s="29"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="28"/>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" s="1">
@@ -24856,7 +24860,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
-      <c r="J124" s="30" t="s">
+      <c r="J124" s="29" t="s">
         <v>99</v>
       </c>
       <c r="K124" s="2"/>
@@ -24872,172 +24876,172 @@
       <c r="S124" s="2"/>
     </row>
     <row r="125" spans="2:19">
-      <c r="B125" s="26">
+      <c r="B125" s="8">
         <v>1</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="26" t="s">
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K125" s="26"/>
-      <c r="L125" s="26"/>
-      <c r="M125" s="27" t="s">
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
-      <c r="P125" s="27"/>
-      <c r="Q125" s="27"/>
-      <c r="R125" s="27"/>
-      <c r="S125" s="27"/>
+      <c r="N125" s="26"/>
+      <c r="O125" s="26"/>
+      <c r="P125" s="26"/>
+      <c r="Q125" s="26"/>
+      <c r="R125" s="26"/>
+      <c r="S125" s="26"/>
     </row>
     <row r="126" spans="2:19">
-      <c r="B126" s="26">
+      <c r="B126" s="8">
         <v>2</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="26" t="s">
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K126" s="26"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="27" t="s">
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="N126" s="27"/>
-      <c r="O126" s="27"/>
-      <c r="P126" s="27"/>
-      <c r="Q126" s="27"/>
-      <c r="R126" s="27"/>
-      <c r="S126" s="27"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="26"/>
+      <c r="P126" s="26"/>
+      <c r="Q126" s="26"/>
+      <c r="R126" s="26"/>
+      <c r="S126" s="26"/>
     </row>
     <row r="127" ht="24" customHeight="1" spans="2:19">
-      <c r="B127" s="26">
+      <c r="B127" s="8">
         <v>3</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="C127" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="26" t="s">
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="K127" s="26"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="26" t="s">
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="N127" s="26"/>
-      <c r="O127" s="26"/>
-      <c r="P127" s="26"/>
-      <c r="Q127" s="26"/>
-      <c r="R127" s="26"/>
-      <c r="S127" s="26"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
     </row>
     <row r="128" ht="29" customHeight="1" spans="2:19">
-      <c r="B128" s="26">
+      <c r="B128" s="8">
         <v>4</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="26" t="s">
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="28" t="s">
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="N128" s="28"/>
-      <c r="O128" s="28"/>
-      <c r="P128" s="28"/>
-      <c r="Q128" s="28"/>
-      <c r="R128" s="28"/>
-      <c r="S128" s="28"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="27"/>
+      <c r="S128" s="27"/>
     </row>
     <row r="129" spans="2:19">
-      <c r="B129" s="26">
+      <c r="B129" s="8">
         <v>5</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26" t="s">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K129" s="26"/>
-      <c r="L129" s="26"/>
-      <c r="M129" s="26" t="s">
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="N129" s="26"/>
-      <c r="O129" s="26"/>
-      <c r="P129" s="26"/>
-      <c r="Q129" s="26"/>
-      <c r="R129" s="26"/>
-      <c r="S129" s="26"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
+      <c r="R129" s="8"/>
+      <c r="S129" s="8"/>
     </row>
     <row r="130" ht="27" customHeight="1" spans="2:19">
-      <c r="B130" s="26">
+      <c r="B130" s="8">
         <v>6</v>
       </c>
-      <c r="C130" s="28" t="s">
+      <c r="C130" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="26" t="s">
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K130" s="26"/>
-      <c r="L130" s="26"/>
-      <c r="M130" s="26" t="s">
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="N130" s="26"/>
-      <c r="O130" s="26"/>
-      <c r="P130" s="26"/>
-      <c r="Q130" s="26"/>
-      <c r="R130" s="26"/>
-      <c r="S130" s="26"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="8"/>
+      <c r="R130" s="8"/>
+      <c r="S130" s="8"/>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" s="1" t="s">
@@ -25129,11 +25133,11 @@
         <v>75</v>
       </c>
       <c r="D144" s="3"/>
-      <c r="E144" s="31" t="s">
+      <c r="E144" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="F144" s="31"/>
-      <c r="G144" s="31"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
       <c r="H144" s="3" t="s">
         <v>133</v>
       </c>
@@ -25281,8 +25285,8 @@
   <sheetPr/>
   <dimension ref="A6:X1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="N1120" sqref="N1120"/>
+    <sheetView topLeftCell="B943" workbookViewId="0">
+      <selection activeCell="I985" sqref="I985"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -28680,8 +28684,6 @@
       <c r="L1068" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M1068" s="1"/>
-      <c r="N1068" s="1"/>
       <c r="O1068" s="8"/>
       <c r="P1068" s="8"/>
       <c r="Q1068" s="8"/>
@@ -28692,8 +28694,6 @@
       <c r="L1069" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="M1069" s="1"/>
-      <c r="N1069" s="1"/>
       <c r="O1069" s="8"/>
       <c r="P1069" s="8"/>
       <c r="Q1069" s="8"/>
